--- a/Oracle/OracleStat.xlsx
+++ b/Oracle/OracleStat.xlsx
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,7 +555,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -563,7 +563,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -603,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -611,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>250</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -619,7 +619,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1242</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/Oracle/OracleStat.xlsx
+++ b/Oracle/OracleStat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\Università\Tirocinio-Unibo\Oracle\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608D785-9A28-4428-B4E6-623AA64CCD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +146,1198 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>A1j</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>A2j</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>A3j</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A4j</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>A5j</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>A6j</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>B1j</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>B2j</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>B3j</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>B4j</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>B5j</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>B6j</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8CE-4E91-932C-4003E8B6D7F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>A1j</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>A2j</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>A3j</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A4j</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>A5j</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>A6j</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>B1j</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>B2j</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>B3j</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>B4j</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>B5j</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>B6j</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8CE-4E91-932C-4003E8B6D7F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1978560256"/>
+        <c:axId val="1978556096"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1978560256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978556096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1978556096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978560256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE43713A-51E2-A891-B2DC-4F7C28CA778B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +1411,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,6 +1463,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +1656,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -454,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -462,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -470,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -478,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -486,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -494,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -502,7 +1729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -510,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -526,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -534,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -542,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -550,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -558,7 +1785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -566,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -574,7 +1801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -582,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -590,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -598,7 +1825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -606,7 +1833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -614,7 +1841,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -622,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -630,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -640,5 +1867,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>